--- a/data/input/absenteeism_data_40.xlsx
+++ b/data/input/absenteeism_data_40.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35468</v>
+        <v>87527</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cauã Rezende</t>
+          <t>Dra. Maria Fernanda Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>11986.78</v>
+        <v>3007.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12692</v>
+        <v>2617</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Guilherme Moreira</t>
+          <t>Luiz Miguel Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>12355.05</v>
+        <v>7235.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82593</v>
+        <v>71007</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Julia Viana</t>
+          <t>Lucca Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>8982.389999999999</v>
+        <v>7325.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22185</v>
+        <v>16179</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daniel Araújo</t>
+          <t>Isabella Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>5529</v>
+        <v>8927.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28114</v>
+        <v>42700</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stella Moraes</t>
+          <t>Ana Luiza Barros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>10183.56</v>
+        <v>9924.459999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80084</v>
+        <v>33880</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lara da Luz</t>
+          <t>Beatriz Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>7169.05</v>
+        <v>6541.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13707</v>
+        <v>19714</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Stephany da Mata</t>
+          <t>Dr. Renan Nascimento</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>4580.21</v>
+        <v>3666.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>75722</v>
+        <v>122</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Antônio da Rocha</t>
+          <t>Luiz Gustavo da Paz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>4707.74</v>
+        <v>12211.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46676</v>
+        <v>47785</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Ana Clara Farias</t>
+          <t>Samuel da Cruz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>4516.49</v>
+        <v>9767.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75556</v>
+        <v>35790</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alexia da Cruz</t>
+          <t>Agatha Mendes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>8741.35</v>
+        <v>9569.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_40.xlsx
+++ b/data/input/absenteeism_data_40.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87527</v>
+        <v>60924</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Maria Fernanda Cardoso</t>
+          <t>Theo Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>3007.96</v>
+        <v>3983.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2617</v>
+        <v>69150</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Miguel Azevedo</t>
+          <t>Bryan Pinto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>7235.12</v>
+        <v>9991.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71007</v>
+        <v>95655</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lucca Ramos</t>
+          <t>Cauê Dias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>7325.34</v>
+        <v>9620.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16179</v>
+        <v>26602</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isabella Ramos</t>
+          <t>Stephany Mendes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>8927.41</v>
+        <v>5367.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42700</v>
+        <v>15018</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Luiza Barros</t>
+          <t>Sra. Luana Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>9924.459999999999</v>
+        <v>4400.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33880</v>
+        <v>85123</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beatriz Silveira</t>
+          <t>Maria Sophia da Rosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>6541.57</v>
+        <v>5327.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19714</v>
+        <v>99192</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Renan Nascimento</t>
+          <t>Luiz Miguel Moura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,84 +664,84 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>3666.45</v>
+        <v>5013.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>122</v>
+        <v>64610</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Gustavo da Paz</t>
+          <t>Pedro Henrique Carvalho</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>12211.14</v>
+        <v>3623.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47785</v>
+        <v>75691</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samuel da Cruz</t>
+          <t>Felipe Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>9767.66</v>
+        <v>6731.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35790</v>
+        <v>39272</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Agatha Mendes</t>
+          <t>Lorena Fernandes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>9569.34</v>
+        <v>12218.1</v>
       </c>
     </row>
   </sheetData>
